--- a/데이터테이블/데이터테이블/아이템 데이터 테이블.xlsx
+++ b/데이터테이블/데이터테이블/아이템 데이터 테이블.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joow1\OneDrive\문서\GitHub\RevoltDay\데이터테이블\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9D32BE-256A-4150-901F-8F2AD06C73DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="504" documentId="13_ncr:1_{CC9D32BE-256A-4150-901F-8F2AD06C73DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E3602911-17EA-4A8E-AE92-14EBF7779F52}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8910" activeTab="3" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="정책" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="문서 정보" sheetId="3" r:id="rId1"/>
+    <sheet name="정책" sheetId="1" r:id="rId2"/>
+    <sheet name="장비 아이템" sheetId="2" r:id="rId3"/>
+    <sheet name="소모용 아이템" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="203">
   <si>
     <t>장비 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +389,461 @@
   </si>
   <si>
     <t>격투 시 조력자 스킬타입(속성, 데미지 증가, 피격 시 감소 수치등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽둥이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너클</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리볼트 데이 사건 테이블 시트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 등등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제갈우진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 장갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손목 보호대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기충격기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진압봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붕대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bandage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tonfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방검복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stab vest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔꿈치 보호대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elbowguards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wristguards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leathergloves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knuckle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stungun </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodensword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑거 테이프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fingertape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간편하게 착용하는 보호대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인파이트로 상성 승리 시 상성 주사위 값에 2만큼 추가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃파이트로 상성 승리 시 상성 주사위 값에 2만큼 추가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래플링로 상성 승리 시 상성 주사위 값에 2만큼 추가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 당했을 때 피해 1을 감소 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인파이트로 상성 승리 시 상성 주사위 값에 3만큼 추가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 당했을 때 피해 3을 감소 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인파이트로 상성 승리 시 상성 주사위 값에 4만큼 추가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃파이트로 상성 승리 시 상성 주사위 값에 4만큼 추가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래플링으로 상성 승리 시 상성 주사위 값에 4만큼 추가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 당했을 때 피해 2을 감소 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래플링으로 상성 승리 시 상성 주사위 값에 3만큼 추가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃파이트로 상성 승리 시 상성 주사위 값에 3만큼 추가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔한 싸움 도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가락 골절을 예방 해주는 도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상처를 봉합하기도 하지만 피해를 막아 줄 수도 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가락에 끼워서 사용하는 무기. 생각보다 치명적이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질긴 가죽 소재로 만들어져서 잡기 편하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습용이라지만 상대방을 제압하긴 충분하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리를 격하게 사용할 때 다리를 보호해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성인 남성도 단번헤 제압할 만큼 성능이 뛰어나다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전경들이 본격적으로 시위대와 대치할 때 쓰는 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가볍지만 칼도 막을 수 있는 전신 보호구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대와 함께 쓰러져도 팔꿈치를 보호해주는 보호대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확대경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지문감식기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fingerprintscanner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성분분석기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>componentanalyzer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구시대 보다 훨씬 발전된 형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현장에서도 과학적 정밀 수사를 가능하게 만드는 키트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 시대 많은 탐정들이 애용한 수사의 기초적 도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인승바이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monocycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착했을 때 행동력 상승치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동력 상승치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인승 자기부상 바이크. 참고로 랜트용이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아드레날린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지 드링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회용 고급 택시 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지상철 예매권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용시 체력이 회복되는 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fasle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 turn</t>
+  </si>
+  <si>
+    <t>1 turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 chance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +851,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,16 +870,44 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -442,14 +930,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -458,7 +960,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -774,27 +1309,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B36C15E-DDD8-44F4-AA27-EAACC0E62D51}">
-  <dimension ref="B2:I75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A88D2F1-858A-4218-B675-E38CAA48F459}">
+  <dimension ref="C7:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.19921875" customWidth="1"/>
-    <col min="13" max="13" width="9.19921875" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="8">
+        <v>101</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="9">
+        <v>201</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="7">
+        <v>301</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="10">
+        <v>401</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="7">
+        <v>501</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="7">
+        <v>601</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B36C15E-DDD8-44F4-AA27-EAACC0E62D51}">
+  <dimension ref="B2:I78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="9.25" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>61</v>
       </c>
@@ -802,915 +1554,957 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="F3" s="1" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="3" t="s">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="3" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="3" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="3" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="3" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="3" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E37" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="3" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E38" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="3" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="3" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E41" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="3" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E42" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="3" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E44" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="3" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E45" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="3" t="s">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E46" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="3" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E47" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="3" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E48" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E49" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47" s="3" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E50" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="3" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E51" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="3" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E52" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B50" s="3" t="s">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E53" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B51" s="3" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E54" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B52" s="3" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E55" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B56" s="2" t="s">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B58" s="3" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E61" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B59" s="3" t="s">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D62" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E62" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B60" s="3" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E63" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B61" s="3" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D64" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E64" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B62" s="3" t="s">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D65" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E65" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B63" s="3" t="s">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D66" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E66" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B64" s="3" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D67" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E67" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B65" s="3" t="s">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D68" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E68" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B66" s="3" t="s">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D69" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E69" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B67" s="3" t="s">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D70" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E70" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B68" s="3" t="s">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D71" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E71" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B69" s="3" t="s">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E72" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B70" s="3" t="s">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C73" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E73" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B71" s="3" t="s">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C74" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E74" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B72" s="3" t="s">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D75" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E75" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B73" s="3" t="s">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C76" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D76" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E76" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B74" s="3" t="s">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D77" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E77" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B75" s="3" t="s">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D78" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E78" s="1" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B56:E57"/>
-    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="B59:E60"/>
+    <mergeCell ref="B32:E33"/>
     <mergeCell ref="B5:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1719,14 +2513,1475 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A1BC4-CB06-4245-B5CC-AAC046658193}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="55" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="12">
+        <v>2</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="12">
+        <v>2</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>152</v>
+      </c>
+      <c r="U4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="12">
+        <v>2</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>153</v>
+      </c>
+      <c r="U5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="12">
+        <v>2</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>154</v>
+      </c>
+      <c r="U6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>205</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12">
+        <v>6</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>155</v>
+      </c>
+      <c r="U7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>206</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="12">
+        <v>6</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>157</v>
+      </c>
+      <c r="U8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="12">
+        <v>6</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>156</v>
+      </c>
+      <c r="U9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>208</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>-2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="12">
+        <v>6</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>158</v>
+      </c>
+      <c r="U10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="12">
+        <v>12</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="12">
+        <v>12</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>160</v>
+      </c>
+      <c r="U12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>211</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="12">
+        <v>12</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>162</v>
+      </c>
+      <c r="U13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>212</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>-3</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="12">
+        <v>12</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>161</v>
+      </c>
+      <c r="U14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="12">
+        <v>2</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>172</v>
+      </c>
+      <c r="U15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>214</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="12">
+        <v>8</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>170</v>
+      </c>
+      <c r="U16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>215</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="12">
+        <v>15</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>171</v>
+      </c>
+      <c r="U17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="12">
+        <v>20</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>181</v>
+      </c>
+      <c r="U18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23AF604-FC28-4226-8DE7-02ED7FA4FC89}">
+  <dimension ref="A2:V9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>230</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="R3" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="S3" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>201</v>
+      </c>
+      <c r="U3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>199</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="S4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>201</v>
+      </c>
+      <c r="U4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="R5" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>200</v>
+      </c>
+      <c r="U5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>199</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>200</v>
+      </c>
+      <c r="U6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>199</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>200</v>
+      </c>
+      <c r="U7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>199</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="R8" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>200</v>
+      </c>
+      <c r="U8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>199</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="S9" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>195</v>
+      </c>
+      <c r="U9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/데이터테이블/데이터테이블/아이템 데이터 테이블.xlsx
+++ b/데이터테이블/데이터테이블/아이템 데이터 테이블.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joow1\OneDrive\문서\GitHub\RevoltDay\데이터테이블\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="504" documentId="13_ncr:1_{CC9D32BE-256A-4150-901F-8F2AD06C73DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E3602911-17EA-4A8E-AE92-14EBF7779F52}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140740D1-3760-437E-A1CC-9BCD74DCBEFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8910" activeTab="3" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="정책" sheetId="1" r:id="rId2"/>
     <sheet name="장비 아이템" sheetId="2" r:id="rId3"/>
     <sheet name="소모용 아이템" sheetId="4" r:id="rId4"/>
+    <sheet name="조력자" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -955,18 +956,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -995,6 +984,18 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1313,7 +1314,7 @@
   <dimension ref="C7:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1322,196 +1323,196 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="3" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="14"/>
+      <c r="K10" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="3" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="7"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="8">
+      <c r="C12" s="4">
         <v>101</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="3" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="7" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>201</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>301</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="10">
+      <c r="C15" s="6">
         <v>401</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>501</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>601</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1555,26 +1556,26 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -1913,18 +1914,18 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
@@ -2235,18 +2236,18 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
@@ -2639,13 +2640,13 @@
       <c r="M3" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="8">
         <v>2</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="8">
         <v>0</v>
       </c>
       <c r="Q3" t="b">
@@ -2701,13 +2702,13 @@
       <c r="M4" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="8">
         <v>2</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="8">
         <v>0</v>
       </c>
       <c r="Q4" t="b">
@@ -2763,13 +2764,13 @@
       <c r="M5" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="8">
         <v>2</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="8">
         <v>0</v>
       </c>
       <c r="Q5" t="b">
@@ -2825,13 +2826,13 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="8">
         <v>2</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="8">
         <v>0</v>
       </c>
       <c r="Q6" t="b">
@@ -2887,13 +2888,13 @@
       <c r="M7" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="8">
         <v>6</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="8">
         <v>1</v>
       </c>
       <c r="Q7" t="b">
@@ -2916,7 +2917,7 @@
       <c r="A8">
         <v>206</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C8" t="s">
@@ -2949,13 +2950,13 @@
       <c r="M8" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="8">
         <v>6</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="8">
         <v>1</v>
       </c>
       <c r="Q8" t="b">
@@ -3011,13 +3012,13 @@
       <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="8">
         <v>6</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="8">
         <v>1</v>
       </c>
       <c r="Q9" t="b">
@@ -3073,13 +3074,13 @@
       <c r="M10" t="b">
         <v>1</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="8">
         <v>6</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="8">
         <v>1</v>
       </c>
       <c r="Q10" t="b">
@@ -3135,13 +3136,13 @@
       <c r="M11" t="b">
         <v>1</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="8">
         <v>12</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="8">
         <v>2</v>
       </c>
       <c r="Q11" t="b">
@@ -3197,13 +3198,13 @@
       <c r="M12" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="8">
         <v>12</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="8">
         <v>2</v>
       </c>
       <c r="Q12" t="b">
@@ -3259,13 +3260,13 @@
       <c r="M13" t="b">
         <v>1</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="8">
         <v>12</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="8">
         <v>2</v>
       </c>
       <c r="Q13" t="b">
@@ -3321,13 +3322,13 @@
       <c r="M14" t="b">
         <v>1</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="8">
         <v>12</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="8">
         <v>2</v>
       </c>
       <c r="Q14" t="b">
@@ -3365,7 +3366,7 @@
       <c r="G15" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="10" t="s">
         <v>138</v>
       </c>
       <c r="I15">
@@ -3383,13 +3384,13 @@
       <c r="M15" t="b">
         <v>1</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="8">
         <v>2</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="8">
         <v>0</v>
       </c>
       <c r="Q15" t="b">
@@ -3415,7 +3416,7 @@
       <c r="B16" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>165</v>
       </c>
       <c r="D16" t="s">
@@ -3427,7 +3428,7 @@
       <c r="G16" t="s">
         <v>138</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="10" t="s">
         <v>138</v>
       </c>
       <c r="I16">
@@ -3445,13 +3446,13 @@
       <c r="M16" t="b">
         <v>1</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="8">
         <v>8</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="8">
         <v>2</v>
       </c>
       <c r="Q16" t="b">
@@ -3489,7 +3490,7 @@
       <c r="G17" t="s">
         <v>138</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="10" t="s">
         <v>138</v>
       </c>
       <c r="I17">
@@ -3507,13 +3508,13 @@
       <c r="M17" t="b">
         <v>1</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="8">
         <v>15</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="8">
         <v>3</v>
       </c>
       <c r="Q17" t="b">
@@ -3551,10 +3552,10 @@
       <c r="G18" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="H18" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>138</v>
       </c>
       <c r="J18">
@@ -3569,13 +3570,13 @@
       <c r="M18" t="b">
         <v>1</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="8">
         <v>20</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="8">
         <v>4</v>
       </c>
       <c r="Q18" t="b">
@@ -3605,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23AF604-FC28-4226-8DE7-02ED7FA4FC89}">
   <dimension ref="A2:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3710,13 +3711,13 @@
       <c r="O3" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="11">
         <v>0.02</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="11">
         <v>0.05</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="11">
         <v>0.1</v>
       </c>
       <c r="T3" t="s">
@@ -3727,6 +3728,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>231</v>
+      </c>
       <c r="B4" t="s">
         <v>184</v>
       </c>
@@ -3751,13 +3755,13 @@
       <c r="O4" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="11">
         <v>0.02</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="11">
         <v>0.05</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="11">
         <v>0.1</v>
       </c>
       <c r="T4" t="s">
@@ -3768,6 +3772,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>232</v>
+      </c>
       <c r="B5" t="s">
         <v>186</v>
       </c>
@@ -3792,13 +3799,13 @@
       <c r="O5" t="b">
         <v>1</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="11">
         <v>0.02</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="11">
         <v>0.05</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="11">
         <v>0.1</v>
       </c>
       <c r="T5" t="s">
@@ -3809,6 +3816,9 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>233</v>
+      </c>
       <c r="B6" t="s">
         <v>185</v>
       </c>
@@ -3833,13 +3843,13 @@
       <c r="O6" t="b">
         <v>1</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="11">
         <v>0.02</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="11">
         <v>0.05</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="11">
         <v>0.1</v>
       </c>
       <c r="T6" t="s">
@@ -3850,6 +3860,9 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>234</v>
+      </c>
       <c r="B7" t="s">
         <v>187</v>
       </c>
@@ -3877,13 +3890,13 @@
       <c r="O7" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="11">
         <v>0.02</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="11">
         <v>0.05</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="11">
         <v>0.1</v>
       </c>
       <c r="T7" t="s">
@@ -3894,6 +3907,9 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>235</v>
+      </c>
       <c r="B8" t="s">
         <v>188</v>
       </c>
@@ -3921,13 +3937,13 @@
       <c r="O8" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="11">
         <v>0.02</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="11">
         <v>0.05</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="11">
         <v>0.1</v>
       </c>
       <c r="T8" t="s">
@@ -3938,6 +3954,9 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>236</v>
+      </c>
       <c r="B9" t="s">
         <v>189</v>
       </c>
@@ -3965,13 +3984,13 @@
       <c r="O9" t="b">
         <v>1</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="11">
         <v>0.02</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="11">
         <v>0.05</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="11">
         <v>0.1</v>
       </c>
       <c r="T9" t="s">
@@ -3982,6 +4001,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62534935-8F4B-408B-A392-A1783AEAD5F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/데이터테이블/데이터테이블/아이템 데이터 테이블.xlsx
+++ b/데이터테이블/데이터테이블/아이템 데이터 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joow1\OneDrive\문서\GitHub\RevoltDay\데이터테이블\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\데이터테이블\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140740D1-3760-437E-A1CC-9BCD74DCBEFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA57DDB-F098-4135-9DF2-159EA0B9808C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8910" activeTab="3" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="4" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 정보" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="245">
   <si>
     <t>장비 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쿨타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>격투 시 조력자 스킬타입(속성, 데미지 증가, 피격 시 감소 수치등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Codex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -793,10 +781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지상철 예매권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -845,6 +829,190 @@
   </si>
   <si>
     <t>1 chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일 택시 이용권. 1턴 동안 행동력이 3 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투입 시 반사능력이 빨라진다. 본래 일반인에겐 판매 금지물품 1턴 동안 격투 2 올려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각이 나지 않을 땐 담배에 불을 붙이는게 좋다. 1턴동안 추리 1 올려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고 타우린 함량으로 몸의 활력을 되찾아준다. 1턴동안 격투 1 올려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전된 의학 기술인해 상처를 매우 빠르게 회복할 수 있다. 체력 8을 회복 시켜준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복용하면 빠르게 고통이 사라진다. 체력 4를 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analgesic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energydrink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adrenalin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxiticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지상철 탑승권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>railticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한장 당 한번 쓸 수 있는 자기부상 열차 티켓.  어디든지 빠르게 갈 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구급요원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트 해커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whitehacker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입(버퍼인가, 일시용인가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사립탐정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch on/off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀드매니저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경비로봇업체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardbot cp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임(내 턴이 새로 시작할 때 감소됨. 0이 되었을 때 재활성화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단서 토큰 획득하는 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈을 획득하는 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 드론 업체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defencedrone cp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴한을 차단을 위한 근접전용 로봇. 딱 죽지 않을 정도로 제압한다. 1턴동안 격투 4 올려준다. 3턴 쿨타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소에는 보안업체에서 일하지만 때론 산업 스파이도 겸한다. 사용 시 단서 토큰 4 획득. 쿨타임 4턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유료 의료 지원 단체 소속 응급요원. 의료 민영화의 결과물이다. 사용 시 체력 10 회복. 쿨타임 4턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실탄도 궤적을 계산하여 방어하는 드론. 백병전에선 비효울적이라는게 흠. 사용 시 1턴 동안 피해 3을 줄여준다,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부자들이 고용하여 수사해주는 사립 탐정. 실력도 부패함도 경찰들과 맞먹는다. 사용 시 1턴동안 추리 4 올려준다. 쿨타임 3턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자 시 최단 기간에 고 수익을 뽑아준다. 대신 로열티가 비싸다. 사용 시 \20 획득. 쿨타임 4턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,9 +1051,10 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="돋움"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -976,9 +1145,6 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -996,6 +1162,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,39 +1483,39 @@
   <dimension ref="C7:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1357,76 +1526,76 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="14"/>
+      <c r="I10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="13"/>
       <c r="K10" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="14"/>
+      <c r="I11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="13"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C12" s="4">
         <v>101</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="14"/>
+      <c r="I12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="13"/>
       <c r="K12" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C13" s="5">
         <v>201</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1435,15 +1604,15 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>301</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1452,15 +1621,15 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C15" s="6">
         <v>401</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1469,15 +1638,15 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C16" s="3">
         <v>501</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1486,15 +1655,15 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C17" s="3">
         <v>601</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1503,7 +1672,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1528,61 +1697,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B36C15E-DDD8-44F4-AA27-EAACC0E62D51}">
-  <dimension ref="B2:I78"/>
+  <dimension ref="B2:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" customWidth="1"/>
-    <col min="13" max="13" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.19921875" customWidth="1"/>
+    <col min="13" max="13" width="9.19921875" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -1591,7 +1760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1599,13 +1768,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1613,13 +1782,13 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1627,13 +1796,13 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1641,17 +1810,17 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1659,19 +1828,19 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1679,59 +1848,59 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1739,27 +1908,27 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1767,13 +1936,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1781,13 +1950,13 @@
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1795,13 +1964,13 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1809,41 +1978,41 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1851,41 +2020,41 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1893,46 +2062,46 @@
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>5</v>
@@ -1941,7 +2110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1949,13 +2118,13 @@
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
@@ -1963,13 +2132,13 @@
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1977,13 +2146,13 @@
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1991,13 +2160,13 @@
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
         <v>23</v>
       </c>
@@ -2005,27 +2174,27 @@
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
@@ -2033,13 +2202,13 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
@@ -2047,27 +2216,27 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
@@ -2075,13 +2244,13 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
@@ -2089,13 +2258,13 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
         <v>17</v>
       </c>
@@ -2103,13 +2272,13 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
@@ -2117,41 +2286,41 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B48" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" s="1" t="s">
         <v>20</v>
       </c>
@@ -2159,13 +2328,13 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
@@ -2173,13 +2342,13 @@
         <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
         <v>22</v>
       </c>
@@ -2187,41 +2356,41 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B54" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
         <v>24</v>
       </c>
@@ -2229,27 +2398,27 @@
         <v>12</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B59" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
         <v>3</v>
       </c>
@@ -2263,7 +2432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
@@ -2271,13 +2440,13 @@
         <v>12</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
         <v>19</v>
       </c>
@@ -2285,13 +2454,13 @@
         <v>12</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
@@ -2299,13 +2468,13 @@
         <v>12</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65" s="1" t="s">
         <v>9</v>
       </c>
@@ -2313,192 +2482,206 @@
         <v>12</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B69" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B70" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B71" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B72" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B73" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B75" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B76" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="1" t="s">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>45</v>
+      <c r="D79" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2519,28 +2702,28 @@
   <dimension ref="A2:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="B14" sqref="B14:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
-    <col min="11" max="12" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="11" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.59765625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -2561,13 +2744,13 @@
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>15</v>
@@ -2582,39 +2765,39 @@
         <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -2623,19 +2806,19 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -2659,24 +2842,24 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="U3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -2685,19 +2868,19 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -2721,24 +2904,24 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="U4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -2747,19 +2930,19 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -2783,24 +2966,24 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="U5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2809,19 +2992,19 @@
         <v>-1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -2845,24 +3028,24 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="U6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>205</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2871,19 +3054,19 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -2907,24 +3090,24 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="U7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>206</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2933,19 +3116,19 @@
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -2969,24 +3152,24 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="U8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2995,19 +3178,19 @@
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -3031,24 +3214,24 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="U9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -3057,19 +3240,19 @@
         <v>-2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -3093,24 +3276,24 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -3119,19 +3302,19 @@
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
@@ -3155,24 +3338,24 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -3181,19 +3364,19 @@
         <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -3217,24 +3400,24 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="U12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -3243,19 +3426,19 @@
         <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -3279,24 +3462,24 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="U13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -3305,19 +3488,19 @@
         <v>-3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -3341,45 +3524,45 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="U14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>213</v>
       </c>
       <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" t="s">
         <v>163</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>166</v>
-      </c>
-      <c r="D15" t="s">
-        <v>169</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -3403,45 +3586,45 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="U15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -3465,45 +3648,45 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
@@ -3527,36 +3710,36 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="U17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>216</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -3565,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -3589,10 +3772,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="U18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3606,18 +3789,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23AF604-FC28-4226-8DE7-02ED7FA4FC89}">
   <dimension ref="A2:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="79.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -3635,7 +3820,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -3644,7 +3829,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>15</v>
@@ -3659,10 +3844,10 @@
         <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>20</v>
@@ -3674,24 +3859,27 @@
         <v>22</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -3700,42 +3888,63 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
         <v>195</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>199</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="P3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="10">
         <v>0.02</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <v>0.05</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="10">
         <v>0.1</v>
       </c>
       <c r="T3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="U3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="V3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -3744,186 +3953,270 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
         <v>195</v>
       </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>199</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="P4" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="10">
         <v>0.02</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="10">
         <v>0.05</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="10">
         <v>0.1</v>
       </c>
       <c r="T4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="U4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="V4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="C5" t="s">
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
         <v>195</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>199</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10">
         <v>0.02</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="10">
         <v>0.05</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="10">
         <v>0.1</v>
       </c>
       <c r="T5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="U5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="V5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
+      <c r="I6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J6" t="s">
+        <v>199</v>
+      </c>
       <c r="K6" t="b">
         <v>1</v>
       </c>
+      <c r="L6" s="8">
+        <v>6</v>
+      </c>
       <c r="M6" t="s">
+        <v>195</v>
+      </c>
+      <c r="N6" t="s">
         <v>199</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="P6" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="10">
         <v>0.02</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="10">
         <v>0.05</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="10">
         <v>0.1</v>
       </c>
       <c r="T6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="U6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="V6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
         <v>195</v>
       </c>
-      <c r="H7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>199</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="P7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="10">
         <v>0.02</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="10">
         <v>0.05</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="10">
         <v>0.1</v>
       </c>
       <c r="T7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="U7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="V7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H8" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+      <c r="I8" t="s">
+        <v>199</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -3931,73 +4224,103 @@
       <c r="K8" t="b">
         <v>1</v>
       </c>
+      <c r="L8" s="8">
+        <v>5</v>
+      </c>
       <c r="M8" t="s">
+        <v>195</v>
+      </c>
+      <c r="N8" t="s">
         <v>199</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="P8" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="10">
         <v>0.02</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="10">
         <v>0.05</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="10">
         <v>0.1</v>
       </c>
       <c r="T8" t="s">
+        <v>196</v>
+      </c>
+      <c r="U8" t="s">
+        <v>191</v>
+      </c>
+      <c r="V8" t="s">
         <v>200</v>
       </c>
-      <c r="U8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>212</v>
+      </c>
+      <c r="C9" t="s">
+        <v>213</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
         <v>195</v>
       </c>
-      <c r="H9" t="s">
-        <v>195</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="N9" t="s">
+        <v>199</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>191</v>
+      </c>
+      <c r="U9" t="s">
         <v>198</v>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>199</v>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="R9" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="T9" t="s">
-        <v>195</v>
-      </c>
-      <c r="U9" t="s">
-        <v>202</v>
+      <c r="V9" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4009,12 +4332,420 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62534935-8F4B-408B-A392-A1783AEAD5F6}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="109.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="8">
+        <v>10</v>
+      </c>
+      <c r="M3" s="8">
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" s="8">
+        <v>10</v>
+      </c>
+      <c r="M4" s="8">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>199</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L5" s="8">
+        <v>10</v>
+      </c>
+      <c r="M5" s="8">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>264</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J6">
+        <v>-3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6" s="8">
+        <v>10</v>
+      </c>
+      <c r="M6" s="8">
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>265</v>
+      </c>
+      <c r="B7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8">
+        <v>10</v>
+      </c>
+      <c r="M7" s="8">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>266</v>
+      </c>
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="8">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L8" s="8">
+        <v>10</v>
+      </c>
+      <c r="M8" s="8">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>199</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="R8" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/데이터테이블/데이터테이블/아이템 데이터 테이블.xlsx
+++ b/데이터테이블/데이터테이블/아이템 데이터 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\데이터테이블\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REVOLT~1\REVOLT~1\데이터~1\데이터~1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA57DDB-F098-4135-9DF2-159EA0B9808C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E0F436-1496-41C2-9B2C-951645508124}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="4" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="1" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 정보" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="245">
   <si>
     <t>장비 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>변수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자료형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 사용 쿨타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장착 했을 때 격투 상승치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>함수 및 자료 형은 프로그래머가 변경하실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1013,6 +1001,18 @@
   </si>
   <si>
     <t>투자 시 최단 기간에 고 수익을 뽑아준다. 대신 로열티가 비싸다. 사용 시 \20 획득. 쿨타임 4턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근제한자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int, bool, string, float 중 하나를 자유롭게 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,7 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,6 +1151,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1159,12 +1162,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,12 +1489,12 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1505,10 +1502,10 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1528,23 +1525,23 @@
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C10" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" s="13"/>
+      <c r="I10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="14"/>
       <c r="K10" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.4">
@@ -1552,18 +1549,18 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="13"/>
+      <c r="I11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="14"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.4">
@@ -1571,20 +1568,20 @@
         <v>101</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="13"/>
+      <c r="I12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="14"/>
       <c r="K12" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.4">
@@ -1592,10 +1589,10 @@
         <v>201</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1609,10 +1606,10 @@
         <v>301</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1626,10 +1623,10 @@
         <v>401</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1643,10 +1640,10 @@
         <v>501</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1660,10 +1657,10 @@
         <v>601</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1697,15 +1694,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B36C15E-DDD8-44F4-AA27-EAACC0E62D51}">
-  <dimension ref="B2:I79"/>
+  <dimension ref="B2:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.19921875" bestFit="1" customWidth="1"/>
@@ -1718,214 +1716,222 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="F3" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="H6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
+      <c r="H7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
@@ -1933,13 +1939,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
@@ -1947,13 +1953,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
@@ -1961,10 +1967,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
@@ -1972,16 +1978,16 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
@@ -1989,38 +1995,38 @@
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>45</v>
@@ -2028,97 +2034,97 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>44</v>
-      </c>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>25</v>
@@ -2126,16 +2132,16 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
@@ -2143,55 +2149,55 @@
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
@@ -2199,41 +2205,41 @@
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
@@ -2241,13 +2247,13 @@
         <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
@@ -2255,13 +2261,13 @@
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
@@ -2269,10 +2275,10 @@
         <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>33</v>
@@ -2280,16 +2286,16 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.4">
@@ -2297,27 +2303,27 @@
         <v>36</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
@@ -2325,10 +2331,10 @@
         <v>20</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>45</v>
@@ -2342,35 +2348,35 @@
         <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>54</v>
@@ -2378,69 +2384,69 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B55" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B58" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B59" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>25</v>
@@ -2448,16 +2454,16 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.4">
@@ -2465,83 +2471,83 @@
         <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" s="1" t="s">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.4">
@@ -2549,83 +2555,83 @@
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B71" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B72" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B73" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B75" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>233</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.4">
@@ -2633,10 +2639,10 @@
         <v>20</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>45</v>
@@ -2650,45 +2656,32 @@
         <v>13</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B78" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B79" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B59:E60"/>
-    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="B58:E59"/>
+    <mergeCell ref="B31:E32"/>
     <mergeCell ref="B5:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2702,7 +2695,7 @@
   <dimension ref="A2:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:K14"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2723,67 +2716,67 @@
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.4">
@@ -2791,13 +2784,13 @@
         <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -2806,19 +2799,19 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -2842,10 +2835,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="U3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
@@ -2853,13 +2846,13 @@
         <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -2868,19 +2861,19 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -2904,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
@@ -2915,13 +2908,13 @@
         <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -2930,19 +2923,19 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -2966,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
@@ -2977,13 +2970,13 @@
         <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2992,19 +2985,19 @@
         <v>-1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -3028,10 +3021,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="U6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
@@ -3039,13 +3032,13 @@
         <v>205</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3054,19 +3047,19 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -3090,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="U7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
@@ -3101,13 +3094,13 @@
         <v>206</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -3116,19 +3109,19 @@
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -3152,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="U8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
@@ -3163,13 +3156,13 @@
         <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -3178,19 +3171,19 @@
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -3214,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="U9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
@@ -3225,13 +3218,13 @@
         <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -3240,19 +3233,19 @@
         <v>-2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -3276,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="U10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
@@ -3287,13 +3280,13 @@
         <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -3302,19 +3295,19 @@
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
@@ -3338,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="U11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
@@ -3349,13 +3342,13 @@
         <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -3364,19 +3357,19 @@
         <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -3400,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="U12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
@@ -3411,13 +3404,13 @@
         <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -3426,19 +3419,19 @@
         <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -3462,10 +3455,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
@@ -3473,13 +3466,13 @@
         <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -3488,19 +3481,19 @@
         <v>-3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -3524,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
@@ -3535,34 +3528,34 @@
         <v>213</v>
       </c>
       <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
         <v>160</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>163</v>
-      </c>
-      <c r="D15" t="s">
-        <v>166</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -3586,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="U15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
@@ -3597,34 +3590,34 @@
         <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -3648,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="U16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
@@ -3659,34 +3652,34 @@
         <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
@@ -3710,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="U17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
@@ -3721,25 +3714,25 @@
         <v>216</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -3748,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -3772,10 +3765,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="U18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3802,70 +3795,70 @@
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
@@ -3873,13 +3866,13 @@
         <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -3888,13 +3881,13 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -3903,10 +3896,10 @@
         <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -3924,13 +3917,13 @@
         <v>0.1</v>
       </c>
       <c r="T3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
@@ -3938,13 +3931,13 @@
         <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -3953,13 +3946,13 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -3968,10 +3961,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -3989,13 +3982,13 @@
         <v>0.1</v>
       </c>
       <c r="T4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
@@ -4003,28 +3996,28 @@
         <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -4033,10 +4026,10 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -4054,13 +4047,13 @@
         <v>0.1</v>
       </c>
       <c r="T5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="U5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
@@ -4068,28 +4061,28 @@
         <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -4098,10 +4091,10 @@
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -4119,13 +4112,13 @@
         <v>0.1</v>
       </c>
       <c r="T6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="U6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
@@ -4133,28 +4126,28 @@
         <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -4163,10 +4156,10 @@
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -4184,13 +4177,13 @@
         <v>0.1</v>
       </c>
       <c r="T7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="U7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
@@ -4198,25 +4191,25 @@
         <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -4228,10 +4221,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -4249,13 +4242,13 @@
         <v>0.1</v>
       </c>
       <c r="T8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="U8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
@@ -4263,28 +4256,28 @@
         <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J9" t="s">
         <v>191</v>
-      </c>
-      <c r="H9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J9" t="s">
-        <v>194</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -4293,10 +4286,10 @@
         <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -4314,13 +4307,13 @@
         <v>0.1</v>
       </c>
       <c r="T9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="U9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="V9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4334,7 +4327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62534935-8F4B-408B-A392-A1783AEAD5F6}">
   <dimension ref="A2:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -4352,61 +4345,61 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
@@ -4414,31 +4407,31 @@
         <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L3" s="8">
         <v>10</v>
@@ -4462,7 +4455,7 @@
         <v>0.2</v>
       </c>
       <c r="S3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
@@ -4470,31 +4463,31 @@
         <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" t="s">
         <v>218</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>221</v>
       </c>
-      <c r="F4" t="s">
-        <v>224</v>
-      </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L4" s="8">
         <v>10</v>
@@ -4503,7 +4496,7 @@
         <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -4518,7 +4511,7 @@
         <v>0.2</v>
       </c>
       <c r="S4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
@@ -4526,31 +4519,31 @@
         <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" t="s">
         <v>221</v>
-      </c>
-      <c r="F5" t="s">
-        <v>224</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L5" s="8">
         <v>10</v>
@@ -4574,7 +4567,7 @@
         <v>0.2</v>
       </c>
       <c r="S5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
@@ -4582,31 +4575,31 @@
         <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J6">
         <v>-3</v>
       </c>
       <c r="K6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L6" s="8">
         <v>10</v>
@@ -4630,7 +4623,7 @@
         <v>0.2</v>
       </c>
       <c r="S6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
@@ -4638,28 +4631,28 @@
         <v>265</v>
       </c>
       <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s">
         <v>222</v>
       </c>
-      <c r="C7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" t="s">
-        <v>225</v>
-      </c>
       <c r="F7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -4686,7 +4679,7 @@
         <v>0.2</v>
       </c>
       <c r="S7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
@@ -4694,31 +4687,31 @@
         <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" t="s">
         <v>221</v>
       </c>
-      <c r="F8" t="s">
-        <v>224</v>
-      </c>
       <c r="G8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I8" s="8">
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L8" s="8">
         <v>10</v>
@@ -4727,7 +4720,7 @@
         <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O8">
         <v>4</v>
@@ -4742,7 +4735,7 @@
         <v>0.2</v>
       </c>
       <c r="S8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
